--- a/US_Wildfires_Data exploratory report.xlsx
+++ b/US_Wildfires_Data exploratory report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xlouis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BECFE0-0D1F-4847-99B4-40A00757273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A9E881-F577-4F99-87D2-60ECF027B05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2385" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2040" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nom Table 1" sheetId="1" r:id="rId1"/>
@@ -271,15 +271,9 @@
     <t>366 days max. per year</t>
   </si>
   <si>
-    <t>1440 min in a day</t>
-  </si>
-  <si>
     <t>8760 different dates does not match with discovery dates</t>
   </si>
   <si>
-    <t>1441 min in a day (1min more than discovery time)</t>
-  </si>
-  <si>
     <t>A / B / C / D / E / F / G</t>
   </si>
   <si>
@@ -353,9 +347,6 @@
   </si>
   <si>
     <t>Code for the (statistical) cause of the fire</t>
-  </si>
-  <si>
-    <t>Time of day that the fire was discovered or confirmed to exist</t>
   </si>
   <si>
     <t>Day of year on which the fire was discovered or confirmed to exist</t>
@@ -422,16 +413,25 @@
 FED, NONFED, INTERAGCY</t>
   </si>
   <si>
-    <t>free-text field with 3455 unique values including codes and names</t>
-  </si>
-  <si>
-    <t>285 unique codes but 3-digit county code not sufficient, state is needed</t>
-  </si>
-  <si>
-    <t>1698 unique names, state is needed</t>
-  </si>
-  <si>
     <t>could be transformed to object</t>
+  </si>
+  <si>
+    <t>Time of day that the fire was discovered or confirmed to exist, format hhmm (local?)</t>
+  </si>
+  <si>
+    <t>1440 min in a day + None</t>
+  </si>
+  <si>
+    <t>free-text field with 3455 unique values including codes and names, don(t use</t>
+  </si>
+  <si>
+    <t>285 unique codes but 3-digit county code not enough, state is required</t>
+  </si>
+  <si>
+    <t>1698 unique names, state is required</t>
+  </si>
+  <si>
+    <t>1441 unique values with empty string ("") to replace + None</t>
   </si>
 </sst>
 </file>
@@ -965,11 +965,11 @@
   </sheetPr>
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
@@ -1100,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>61</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1135,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1170,7 +1170,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -1205,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>62</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>62</v>
@@ -1273,7 +1273,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>62</v>
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>62</v>
@@ -1341,7 +1341,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>62</v>
@@ -1375,7 +1375,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>62</v>
@@ -1409,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
@@ -1443,7 +1443,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
@@ -1477,7 +1477,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
@@ -1511,7 +1511,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
@@ -1521,7 +1521,7 @@
         <v>0.50901718000000007</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>62</v>
@@ -1545,7 +1545,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
@@ -1579,7 +1579,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
@@ -1613,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
@@ -1647,7 +1647,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
@@ -1681,7 +1681,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
@@ -1715,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>62</v>
@@ -1751,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>62</v>
@@ -1787,7 +1787,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>62</v>
@@ -1823,7 +1823,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
@@ -1833,13 +1833,13 @@
         <v>0.46937220000000002</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -1859,7 +1859,7 @@
         <v>38</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>62</v>
@@ -1893,7 +1893,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="s">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>62</v>
@@ -1927,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
@@ -1937,13 +1937,13 @@
         <v>0.47410134999999998</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -1963,7 +1963,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
@@ -1973,7 +1973,7 @@
         <v>0.47410134999999998</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>62</v>
@@ -1999,7 +1999,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
@@ -2009,13 +2009,13 @@
         <v>0.51698542999999997</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -2035,7 +2035,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>62</v>
@@ -2069,7 +2069,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
@@ -2079,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>62</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -2105,7 +2105,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>62</v>
@@ -2139,7 +2139,7 @@
         <v>46</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>62</v>
@@ -2173,7 +2173,7 @@
         <v>47</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>62</v>
@@ -2207,7 +2207,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>62</v>
@@ -2241,7 +2241,7 @@
         <v>49</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>62</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
@@ -2268,7 +2268,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" ht="51">
+    <row r="38" spans="1:17" ht="38.25">
       <c r="A38" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2277,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
@@ -2313,7 +2313,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
@@ -2349,7 +2349,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
@@ -2385,7 +2385,7 @@
         <v>53</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>62</v>
